--- a/Homework#1/salida/comentarios_redit.xlsx
+++ b/Homework#1/salida/comentarios_redit.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>post_id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -458,116 +458,116 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1n43su4</t>
+          <t>1n6mksa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>nbi2loz</t>
+          <t>nc122f8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jen Sorensen:
-[Web’s end]( https://www.dailykos.com/stories/2025/8/27/2340363/-Cartoon-Web-s-end)</t>
+          <t>To sort this thread by 'best comments first', [click or tap here](https://www.reddit.com/r/politics/comments/1n6mksa/discussion_thread_us_president_trump_makes/?sort=confidence).
+To sort this thread by 'newest comments first', [click or tap here](https://www.reddit.com/r/politics/comments/1n6mksa/discussion_thread_us_president_trump_makes/?sort=new).
+---
+Edit: See also, if interested, this thread: [Discussion Thread: US House and Senate Sessions on September 2nd, 2025](https://www.reddit.com/r/politics/comments/1n6nhqj/discussion_thread_us_house_and_senate_sessions_on/?sort=new)</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1n43su4</t>
+          <t>1n6mksa</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>nbi2h6m</t>
+          <t>nc12s3d</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Brian McFadden - [Anti-Heroes](https://www.dailykos.com/stories/2025/8/29/2340822/-Cartoon-Resistance-anti-heroes)</t>
+          <t>Newsweek is reporting that it's about moving Space Command to Alabama. Sounds like they just want him in front of a camera.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1n43su4</t>
+          <t>1n6mksa</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nbi2soe</t>
+          <t>nc1bp19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Pedro X. Molina:
-[The symbol…](https://www.gocomics.com/pedroxmolina/2025/08/27)
-[A whisper](https://www.gocomics.com/pedroxmolina/2025/08/25)</t>
+          <t>For anyone still out of the loop, he's moving Space Command to Alabama. There is zero reason to have a televised address other than the fact that they saw everyone talking about how much he looks like shit, so they're gonna do what happened when he got Covid.
+Crank him full of drugs and put him on camera for a few minutes to make it seem like he isn't incredibly unwell.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>23</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1n43su4</t>
+          <t>1n6mksa</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>nbi6a1l</t>
+          <t>nc22ff4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ratt- [Who is to blame?](https://www.dailycartoonist.com/wp-content/uploads/2025/08/ratt-0825.webp)</t>
+          <t>it's 2:27pm...do you know where your president is?</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>17</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1n43su4</t>
+          <t>1n6mksa</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>nbi3ft1</t>
+          <t>nc1awmj</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ben Jennings
-[Back to school sale](https://www.theguardian.com/commentisfree/picture/2025/aug/28/ben-jennings-minneapolis-school-shooting-minnesota)</t>
+          <t>Trump is gonna sit in front of a teleprompter for 5 minutes and slur his way through some nothingburger announcement, and the corporate media will be like "see? this proves that liberals had TDS to have questions about why he was MIA for a week!"</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1n4u384</t>
+          <t>1n6s5wy</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nbnm8a0</t>
+          <t>nc284po</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -589,17 +589,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1n4u384</t>
+          <t>1n6s5wy</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>nbnoglj</t>
+          <t>nc28l04</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>If any of us woke up daily to find a series of overnight nonsensical rants from our 79-year old grandpa, we'd be talking about what this means for his mental health, the need for some level of assisted living, and would see it as a transition point for our aging loved one.  But no, not Americans, we're letting grandpa run the country.  Make that make sense.</t>
+          <t>This is why trump is trying to suck the oxygen out of the news cycle. The Epstein victims are holding a mass Press Conference in DC tomorrow, GOP are now demanding the release of the files legally, and a bunch of other Epstein related material is due to drop this month.
+Expect extreme deflection and diversions in the coming days.</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -609,17 +610,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1n4u384</t>
+          <t>1n6s5wy</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nbnnfel</t>
+          <t>nc2ds5n</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>You know it seems like this is the Headline every morning? It looks like Trump can’t be left alone or his Crazy comes out.</t>
+          <t>&gt;Rep. Thomas Massie, a Kentucky Republican, filed a [discharge petition](https://clerk.house.gov/DischargePetition/2025090209) on Tuesday to attempt to force a House vote on compelling the release of files related to late sex offender Jeffrey Epstein, resurfacing the saga upon [Congress' return](https://www.cbsnews.com/news/congress-returns-funding-epstein-crime/). 
+&gt;Massie and Rep. Ro Khanna, a California Democrat, introduced [legislation](https://www.congress.gov/bill/119th-congress/house-resolution/581/text) in July that would require the Justice Department to release the Epstein files within 30 days. They planned to force a vote on the bill once lawmakers returned from their lengthy August recess.
+&gt;Although leadership controls the House's agenda and what legislation receives a vote, individual lawmakers can "discharge" legislation that has been sitting in committee. A discharge petition enables 218 members, a majority of the lower chamber, to provide their signatures and effectively bypass leadership to bring a bill before the full House for a vote. 
+&gt;Khanna [told](https://www.npr.org/2025/09/02/nx-s1-5524941/rep-ro-khanna-discusses-bipartisan-demand-for-doj-to-release-epstein-files) NPR News on Tuesday that he's "very confident" all 212 Democrats will support the petition, along with more than the six Republicans needed to force a vote in the House.
+If they won't release the Epstein files, force them too.  I like this strategy, we will see how it plays out.</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -629,17 +634,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1n4u384</t>
+          <t>1n6s5wy</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nbntf2l</t>
+          <t>nc28p12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>It was cute when Republicans pretended to be so concerned about the mental fitness of Biden, wasn’t it?</t>
+          <t>Rep. Massie Hits Trump: ‘I Got [Three Billionaires](https://grabien.com/story?id=543716) Right Now Running Ads Against Me in Kentucky, and One of Them Is in Epstein’s Black Book’</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -649,17 +654,19 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1n4u384</t>
+          <t>1n6s5wy</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>nbnzmh4</t>
+          <t>nc2ekpl</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cool. Was he posting about releasing the Trump-Epstein files? Or perhaps he was posting about sexually assaulting E. Jean Carroll, over which he was convicted in a court if law.</t>
+          <t>Massie:
+"...the White House is working pretty hard to try to get my co-sponsors not to sign it."
+Gee... that seems odd... I mean, it's not like Trump has anything to HIDE... right?</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -669,12 +676,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1n4uee7</t>
+          <t>1n6xprx</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>nbnog9w</t>
+          <t>nc3ef67</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -696,17 +703,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1n4uee7</t>
+          <t>1n6xprx</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>nbnrqgi</t>
+          <t>nc3gt4v</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>But he’s fine talking about how he and his son know one another’s porn habits</t>
+          <t>And I’m sure she’ll jump right back to championing her pedo in chief. Spare me</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -716,17 +723,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1n4uee7</t>
+          <t>1n6xprx</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>nbnw6fc</t>
+          <t>nc3llm6</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>This is why the traditional media is useless. Absolutely useless. They should have held his feet to the fire, not moved on from the topic until they got an admission of complete hypocrisy and unconstitutional nonsense this all is. But instead, very little pushback and they moved on so maga Mike is able to deflect and lie while not looking like the completely shameless piece of shit he is.</t>
+          <t>This is some “I’m the main character” moves by Mace, even if she’s being genuinely upset, she could have had the grace to listen to these people all the way through. Her allegations were never brought to the authorities as she claims 
+“In her February speech, Mace claimed she was speaking out because South Carolina Attorney General Alan Wilson had declined to act upon evidence of abuse that she said she provided. But the top state prosecutor said Mace’s accusations of improper conduct by his office were “categorically false,” claiming the office had “no knowledge” of Mace’s alleged assault until her speech on the House floor.”
+And she’s being sued in civil court by the people she’s accused. The victims of Epstein were the folks who the attention should be on, not Mace. 
+www.politico.com/news/2025/03/14/nancy-mace-defamation-lawsuit-025919</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -736,17 +746,19 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1n4uee7</t>
+          <t>1n6xprx</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>nbnsedq</t>
+          <t>nc3fw5c</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Look - what's important to remember here is that Democrats should be judged against facts. Republicans should only be judged by the effectiveness of our performative nonsense. As our President has made abundantly clear - ratings are what matters. Ratings drive commercial success. If content drove success we would live in a world without commercials." - Alternate Universe Mike Johnson</t>
+          <t>"Mace wiped tears from her face and averted reporters’ eyes as she walked past them, signaling she would not be taking questions."
+You can't avert someone else's eyes; you can only avert your own. Sheesh. 
+And Mace's empathy seems to be quite limited. She's been busy tormenting Sarah McBride for months like a classic Mean Girl.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -756,18 +768,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1n4uee7</t>
+          <t>1n6xprx</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>nbns2k2</t>
+          <t>nc3fy0s</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Not that it will happen, but I would love to see the next Democrat president march National Guard Troops into Red cities and watch how quickly these same Republicans who are cheering Trump on become whiny losers who cry how mean the Democrats are
-We know Republicans can't take what they dish out.   We saw that when Governor Newsome started playing with Trump's playbook and all the Republicans started crying like little babies about how mean and unprofessional Newsome is.</t>
+          <t>Pay close attention, MAGA will turn on the victims now and convince Maga voters that child sex crimes aren’t a big deal anymore. Hashtag save the children hashtag unmask our children blah blah blah</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -777,12 +788,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1n4stub</t>
+          <t>1n6yhwa</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>nbnd1xc</t>
+          <t>nc3k4t8</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -804,17 +815,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>1n4stub</t>
+          <t>1n6yhwa</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>nbngv9u</t>
+          <t>nc3mq98</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>&gt;Sanders’ endorsement of the 40-year-old Platner comes at odds with others in the Democratic Party, who are reportedly hoping that the state’s 77-year-old Governor Janet Mills will enter the race instead.</t>
+          <t>Imagine, 100 willing to speak and how many there could be not ready to speak. How many came from Trump properties and pageants?</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -824,17 +835,18 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1n4stub</t>
+          <t>1n6yhwa</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>nbnp172</t>
+          <t>nc3t9u4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Janet is only beating Susan Collins by 1 point, Graham is ahead of Collins by 12. But you already know who the party is putting their support behind.</t>
+          <t>We have no right to expect it and it would be a bold sacrifice for her to make but I would absolutely love it if the Jane Doe 13 year old who filed the suit in the 90's against Trump but withdrew it due to threats of violence was there.
+If she stood up and not only accused Epstein but Trump directly an announce who she is it would be impactful.</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -844,17 +856,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>1n4stub</t>
+          <t>1n6yhwa</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>nbnhjx9</t>
+          <t>nc3vmz8</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Awesome!!! More working class people in DC. Enough of Consultant Democrats and MAGA Republicans. Also look at Senate candidate from Nebraska, he almost defeated Republican candidate in 2024 while running as Independent and is running again in 26</t>
+          <t>Which is why Trump will send the National Guard into cities tomorrow. Or maybe he'll just shit on a desk on live television. Anything to steal the narrative.</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -864,18 +876,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1n4stub</t>
+          <t>1n6yhwa</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>nbno42p</t>
+          <t>nc3mhk2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>How is it our most progressive senator is our oldest?
-Democrats should feel embarrassed, although I hope he's got a good idea of who will take his place in his own state. Nature abhors a vacuum and all.</t>
+          <t>Just imagine ALL of the names on the Epstein list- Republicans, Democrats, Celebrities, TV personalities, Royalty etc.</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -885,12 +896,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1n4svh5</t>
+          <t>1n6woot</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nbnddjo</t>
+          <t>nc36tdg</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -912,17 +923,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1n4svh5</t>
+          <t>1n6woot</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>nbnirbd</t>
+          <t>nc36y7x</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Trump has dropped out of the spot light. He is hiding. Weird. It's labor day weekend and he isn't showing off not working while blabbing about how everyone needs to work more.</t>
+          <t>So its an invasion....</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -932,17 +943,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1n4svh5</t>
+          <t>1n6woot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>nbngokq</t>
+          <t>nc37j5v</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>If Newsom trolling and humiliating Trump ages him more, I'm all for it.</t>
+          <t>Trump is declaring war on his own country.</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -952,17 +963,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1n4svh5</t>
+          <t>1n6woot</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>nbnj7e9</t>
+          <t>nc3bwo3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">You gotta imagine Trump knows that billions of people laugh at him daily. Billions. </t>
+          <t>Texas national guard in Illinois? Sounds like some civil war shit</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -972,17 +983,18 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1n4svh5</t>
+          <t>1n6woot</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>nbnnln6</t>
+          <t>nc3c6cj</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Can Newsom or Obama challenge Trump to a golf match? I’d love to see him deflate when they count every single stroke and he shoots over 100.</t>
+          <t>Texas has 7 cities with a violent crime rate higher than Chicago's.
+Seems like there's plenty of work they could be doing locally.</t>
         </is>
       </c>
       <c r="D26" t="n">
@@ -992,12 +1004,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1n50hky</t>
+          <t>1n6p9sm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nbp0xt3</t>
+          <t>nc1m60r</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1019,92 +1031,101 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1n50hky</t>
+          <t>1n6p9sm</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>nbp215e</t>
+          <t>nc1n6vy</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>This is intentionally misleading. Even in red states, almost every city is blue. trump and Stephen Miller's goal is to terrorize democratic strongholds.</t>
+          <t>Posse Comitatus Act of 1878. It should be an automatic win for Newsom. ‘Should’ being the key word here.</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>4437</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1n50hky</t>
+          <t>1n6p9sm</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>nbp1afx</t>
+          <t>nc1n6hi</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>You should consider following the law and not deploying military to us cities.</t>
+          <t>TL;DR:  injunctive relief granted about sending the Marines and the national guard into LA.</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1n50hky</t>
+          <t>1n6p9sm</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>nbp4i8e</t>
+          <t>nc1tlcw</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>This is all a pretense to manufacture riots so trump can enact the insurrection act and cancel the 2028 elections. Read The Rise and Fall of the Third Reich. Trump is on the exact path.</t>
+          <t>I don't remember hearing anything about violent protests, but then again, I don't watch Fox.</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1n50hky</t>
+          <t>1n6p9sm</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>nbp3pqs</t>
+          <t>nc21cf6</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Trump is a pedophile who raped kids</t>
+          <t>&gt;For the foregoing reasons, the Court ORDERS that Defendants29 are enjoined from
+&gt;deploying, ordering, instructing, training, or using the National Guard currently deployed
+&gt;in California, and any military troops heretofore deployed in California, to execute the
+&gt;laws, including but not limited to engaging in arrests, apprehensions, searches, seizures,
+&gt;security patrols, traffic control, crowd control, riot control, evidence collection,
+&gt;interrogation, or acting as informants, unless and until Defendants satisfy the requirements
+&gt;of a valid constitutional or statutory exception, as defined herein, to the Posse Comitatus
+&gt;Act. 
+Trump's deployment of the US military is clearly a violation of the Posse Comitatus Act, and it's not even a close call.  
+As he clearly stated recently, he thinks he's the President so he can do whatever he wants, including violate federal laws and the constitution he swore to uphold.</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1n4ssxj</t>
+          <t>1n6jsye</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>nbncv6s</t>
+          <t>nc0h2vl</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1126,94 +1147,93 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1n4ssxj</t>
+          <t>1n6jsye</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>nbnddaz</t>
+          <t>nc0jc9k</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Wikipedia is used to train large language models for AI.  Republicans want to lie and the LLMs are catching their BS. 
-If you want to see what a right wing wiki looks like take a look at Conservapedia.com 
-Don't spend too much time there as your brain might be damaged</t>
+          <t>All of us non-cult members knew this the second it happened.
+MAGA - the deep state / shadow government you're looking for is called "The Heritage Foundation" and the pedophile sex traffickers you're looking for are your president and his billionaire buddies.</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1n4ssxj</t>
+          <t>1n6jsye</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>nbnplsf</t>
+          <t>nc0hjnq</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>The Heritage Foundation is Evil (they have earned the big E through their efforts)</t>
+          <t>Good, now do something about it.</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1n4ssxj</t>
+          <t>1n6jsye</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>nbndcs7</t>
+          <t>nc0jwd9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>This is all about chilling free speech and censoring and revising news/history.   Numbers 3 and 6 of the [14 characteristics of fascism](https://ratical.org/ratville/CAH/fasci14chars.html).</t>
+          <t>I've seen conservatives defending the DC stuff and not sending the guard to red states by saying he can legally do it for under 30 days in DC.... causally forgetting about LA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1n4ssxj</t>
+          <t>1n6jsye</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>nbne8fd</t>
+          <t>nc106cg</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>They want to destroy the free display of factual information. Facts don’t agree with their agenda. This is censorship for authoritarian gain. The GOP are forcibly taking over the country. They’re making us weak to make themselves rich.</t>
+          <t>I love how trump does something illegal, the damage is done, then months later it is ruled it was illegal and nothing happens. Rinse and repeat.</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1n4kfsv</t>
+          <t>1n6sj54</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>nblrl0b</t>
+          <t>nc2avp9</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1235,94 +1255,97 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>1n4kfsv</t>
+          <t>1n6sj54</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>nblsla1</t>
+          <t>nc2cz8s</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Fucker is going to die his way out of the consequences. That colossal turd will be on brand even in death.</t>
+          <t>Sherman didn’t burn enough.</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>934</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>1n4kfsv</t>
+          <t>1n6sj54</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>nblrwww</t>
+          <t>nc2e1yy</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>I heard some of Epstein's victims are going to have a press conference soon. They should remind everyone that on the list of people congress doesn't seem to want to talk to us Alex Acosta. The guy who knows EVERYTHING about Epstein and who gave him a sweetheart deal. Cause he definitely needs to testify. Publicly.</t>
+          <t>&gt;The first black mayor of a tiny Alabama town has overwhelmingly won an election, four years after white residents locked him out of the town hall and refused to let him serve.
+WTF? Perhaps I am just ignorant about "the south," but how the frack can someone elected to be mayor not be allowed to be mayor?</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>378</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1n4kfsv</t>
+          <t>1n6sj54</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>nbltaex</t>
+          <t>nc2vp93</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Trump diddles and rapes children..😯</t>
+          <t>"But the locks were changed at the town hall." I hate that passive voice. If the locks were changed, humans did that. Be journalists and name those humans.</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1n4kfsv</t>
+          <t>1n6sj54</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>nblyvn8</t>
+          <t>nc2ghh5</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>I really hope this is where the truth all comes out. Trump and everyone else on that list need to come out. I don’t care who else is on it, or what side of the political aisle they fall on, fuck them. 
-If you’re a guilty of fucking the trafficked underaged girls that Epstein brought to you, you deserve the worst. 
-Take them all down.</t>
+          <t>Newbern's demo breakdown, by race:
+White: 31.58%
+Black 63.91%
+Mixed: 2.26%
+Hispanic: 2.26%</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1n4rsln</t>
+          <t>1n6nqk9</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>nbn5q5e</t>
+          <t>nc1aum5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1344,103 +1367,95 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1n4rsln</t>
+          <t>1n6nqk9</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>nbn786q</t>
+          <t>nc1c65l</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Well....that shouldn't surprise anyone</t>
+          <t>&gt;U.S. Attorney Jeanine Pirro’s office has run into almost unheard of difficulties in obtaining grand jury indictments since Trump’s federal surge in D.C. began. Last week, prosecutors were forced to acknowledged they had tried three times to indict a woman for allegedly assaulting an FBI agent and been rejected all three times. A day later, WUSA9 reported a grand jury had refused to indict a D.C. man accused of assaulting a Customs and Border Protection officer by throwing a sandwich at him. Prosecutors have since charged both defendants with lesser misdemeanors. 
+This is awesome. ~~NY~~ DC grand juries doing the Lord's work.
+Edited to change NY to DC, because I am a numbskull</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>201</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1n4rsln</t>
+          <t>1n6nqk9</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>nbn8prl</t>
+          <t>nc1cotq</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>&gt;A month before the [fatal](https://www.independent.co.uk/news/world/americas/crime/minneapolis-school-shooting-second-victim-identified-girl-b2816204.html) Minneapolis [church shooting](https://www.independent.co.uk/news/world/americas/crime/minneapolis-shooting-robin-westman-manifesto-updates-b2816565.html), the [Trump](https://www.independent.co.uk/topic/trump)administration cut $18.5 million in funding from a Homeland Security program aimed at identifying and preventing potential mass shooters. 
-&gt;In July, the administration significantly downsized the DHS’ Center for Prevention Programs and Partnerships (CP3), which administers the Targeted Violence and Terrorism Prevention Grant Program. This initiative had previously funded local efforts to identify and prevent potential mass shooters. 
-&gt;The downsizing included reducing the center's staff from 45 full-time employees to just a handful and eliminating numerous contracts.
-&gt;\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*
-&gt;For instance, the Minnesota Department of Public Safety's grant was intended to create a statewide threat assessment and management team focusing on active shooters and related threats. Similarly, the Hennepin County Sheriff's Office's grant sought to enhance collaboration among various professionals to address mass violence risks.
-&gt;DHS officials defended the decision in a statement, claiming, “the grant program previously administered by CP3 was nothing more than a slush fund for left-wing ideologies, and did next to nothing to combat actual threats in our communities.”
-&gt;However, critics argue that these programs were essential in equipping local agencies with the tools needed to prevent violence. Democratic Representative Betty McCollum, along with five other lawmakers, had previously urged DHS in a letter to reinstate the funding, citing the importance of such initiatives in the face of increasing threats to schools and religious institutions.
-&gt;\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*\*
-&gt;“This event in Minneapolis was 100 percent preventable. This was exactly the kind of event we could have stopped,” a former DHS employee, speaking to *CNN* anonymously to avoid jeopardizing their deferred resignation, said.
-Another example of poor Republican leadership led by the idiot-in-chief Donald Trump that can be measured in blood spilt and lives lost. 
-Their excuse for cutting funding was calling it a slush fund for left wing ideologies.  Prevention of gun violence is considered to be a 'left-wing' ideology to Trump and Republicans because their corruption has deep ties to the gun industry.  We've tried their way, more guns for years.  It hasn't change a thing.  Just more of the same.  
-As far as calling it a slush fund, this is just more projection as Republicans and Trump have been using Americans as their own private slush fund for years.</t>
+          <t>It must be so frustrating. Grand juries have d been always been so easy to secure an indictment. Until now.</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>53</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1n4rsln</t>
+          <t>1n6nqk9</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>nbna709</t>
+          <t>nc1da92</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>They're not pro life, just pro birth.</t>
+          <t>&gt;In a Facebook post on Aug. 6 in which she tagged the FBI, Jones wrote she was “willing to sacrificially kill this POTUS by disemboweling him and cutting out his trachea.” In an email sent Aug. 14, Jones allegedly wrote she was “available to kill this man” in apparent reference to Trump. According to a detention memo, the email was sent to “several military, pharmaceutical and governmental recipients.”
+inb4 a ban for quoting the article but this is hilarious, woman is wild and the grand juries lately are really showing the regime how little the people give a fuck about them.</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12</v>
+        <v>731</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1n4rsln</t>
+          <t>1n6nqk9</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>nbnd4bw</t>
+          <t>nc1fz1a</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No suprise here.</t>
+          <t>Jeanine Pinot is impressively fucking bad at this.</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>1n4hnl9</t>
+          <t>1n6mdvy</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>nbl53ma</t>
+          <t>nc10ke0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1462,82 +1477,84 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1n4hnl9</t>
+          <t>1n6mdvy</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>nbl765c</t>
+          <t>nc11e0g</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Get him out before he kills people. His stupid anti Vax shit will kill people. His ability to look at a child and know their health is absurd. He is to ignorant and is destroying the health department. Make sure these people are held accountable for the damage they cause.</t>
+          <t>This only matters if something is done about it.</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1083</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1n4hnl9</t>
+          <t>1n6mdvy</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>nbl7826</t>
+          <t>nc13qez</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No one resigns. It takes shame to resign, these people don't resign. The redouble their stupidity. 
-Doubling down, tripling down, on the terrible and evil and stupid.</t>
+          <t>Remember when a dude having his voice crack mid yell or having a brain fart about the word potato was enough to tank a political career?
+Or how about when looking funny in a tank commanders helmet was enough to put a man on the path to presidency into witness protection until he got some anchoring role 20+ years later.</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>384</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1n4hnl9</t>
+          <t>1n6mdvy</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>nbl9jwm</t>
+          <t>nc16ysy</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>He needs to be fully investigated and impeached if democrats win the house. Obviously if he was descent person he would resign but he wont because he is not a good person. He seems to believe in eugenics when it comes to modern medicine and only the,strong shall survive.</t>
+          <t>Hot take: hold the officers responsible for following unlawful orders. The police force of any city they are in should be putting themselves at risk and detaining any officer (at minimum) who is unlawfully directing law enforcement activities and soldiers should stand down and return to quarters.</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1n4hnl9</t>
+          <t>1n6mdvy</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>nblf3tm</t>
+          <t>nc11fiz</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>i'm not usually one to let facebook memes do my thinking for me, but fair point from the one i just saw: why does the dude who shot heroin for 14 years get to decide i can't have a vaccine?</t>
+          <t>***From Rolling Stone’s Nikki McCann Ramirez:***
+As President Donald Trump threatens to deploy federal troops to Chicago in a continuation of his attempted power grab within prominent Democratic cities, a federal judge has ruled that his deployment of military personnel to Los Angeles in June violated the Posse Comitatus Act.
+Read: [https://www.rollingstone.com/politics/politics-news/trump-judge-illegal-military-police-force-los-angeles-1235419900/](https://www.rollingstone.com/politics/politics-news/trump-judge-illegal-military-police-force-los-angeles-1235419900/)</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>122</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
